--- a/CVX_Kenya/Optimization/ Biomass_price_petr.xlsx
+++ b/CVX_Kenya/Optimization/ Biomass_price_petr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>Intervention</t>
   </si>
@@ -118,13 +118,16 @@
     <t>years</t>
   </si>
   <si>
+    <t>Mm3/FU</t>
+  </si>
+  <si>
+    <t>kton/FU</t>
+  </si>
+  <si>
+    <t>kha/FU</t>
+  </si>
+  <si>
     <t>m3/FU</t>
-  </si>
-  <si>
-    <t>kton/FU</t>
-  </si>
-  <si>
-    <t>kha/FU</t>
   </si>
   <si>
     <t>-2015.6985871271584</t>
@@ -497,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC8"/>
+  <dimension ref="A1:AD8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:30">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -586,8 +589,11 @@
       <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="AD1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:30">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,10 +678,13 @@
       <c r="AC2" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="AD2" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:30">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1"/>
       <c r="H4">
@@ -691,13 +700,13 @@
         <v>1.685694992540851</v>
       </c>
       <c r="L4">
-        <v>9.571711623342708</v>
+        <v>10.43110683280975</v>
       </c>
       <c r="M4">
         <v>57.13737742694502</v>
       </c>
       <c r="N4">
-        <v>0.507854027528083</v>
+        <v>0.02477265619290847</v>
       </c>
       <c r="O4">
         <v>2465.959879061207</v>
@@ -708,14 +717,11 @@
       <c r="Q4">
         <v>75.00379288429394</v>
       </c>
-      <c r="R4">
-        <v>24.33238917902054</v>
-      </c>
       <c r="S4">
         <v>10.47574421404897</v>
       </c>
       <c r="T4">
-        <v>0.1593653223408182</v>
+        <v>0.04859385058716725</v>
       </c>
       <c r="U4">
         <v>1614.457231753971</v>
@@ -727,13 +733,13 @@
         <v>2848.334435390076</v>
       </c>
       <c r="X4">
-        <v>-71.38472705440654</v>
+        <v>-92.20548830540793</v>
       </c>
       <c r="Y4">
         <v>-560.8980300554013</v>
       </c>
       <c r="Z4">
-        <v>-4.919174952940011</v>
+        <v>-0.1991327113419175</v>
       </c>
       <c r="AA4">
         <v>-23045.1415588581</v>
@@ -744,10 +750,13 @@
       <c r="AC4">
         <v>1621.248776193475</v>
       </c>
+      <c r="AD4">
+        <v>12.10558002268954</v>
+      </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:30">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1"/>
       <c r="H5">
@@ -763,13 +772,13 @@
         <v>1.699631502050461</v>
       </c>
       <c r="L5">
-        <v>9.491655879755854</v>
+        <v>10.34191992259002</v>
       </c>
       <c r="M5">
         <v>57.10315045840071</v>
       </c>
       <c r="N5">
-        <v>0.5056013533494479</v>
+        <v>0.02456314486244082</v>
       </c>
       <c r="O5">
         <v>2447.827699313173</v>
@@ -780,14 +789,11 @@
       <c r="Q5">
         <v>74.52923054620624</v>
       </c>
-      <c r="R5">
-        <v>24.33238917902054</v>
-      </c>
       <c r="S5">
         <v>10.47574421404897</v>
       </c>
       <c r="T5">
-        <v>0.1593653223408182</v>
+        <v>0.04859385058716725</v>
       </c>
       <c r="U5">
         <v>1614.457231753971</v>
@@ -799,13 +805,13 @@
         <v>2848.334435390076</v>
       </c>
       <c r="X5">
-        <v>-70.584169618538</v>
+        <v>-91.31361920321069</v>
       </c>
       <c r="Y5">
         <v>-560.5557603699581</v>
       </c>
       <c r="Z5">
-        <v>-4.896648211153661</v>
+        <v>-0.197037598037241</v>
       </c>
       <c r="AA5">
         <v>-22863.81976137776</v>
@@ -816,10 +822,13 @@
       <c r="AC5">
         <v>1636.029278123984</v>
       </c>
+      <c r="AD5">
+        <v>12.10558002268954</v>
+      </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:30">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1"/>
       <c r="H6">
@@ -835,13 +844,13 @@
         <v>1.713800390208676</v>
       </c>
       <c r="L6">
-        <v>9.411600041028578</v>
+        <v>10.25273290634505</v>
       </c>
       <c r="M6">
         <v>57.06892344918924</v>
       </c>
       <c r="N6">
-        <v>0.5033486764914414</v>
+        <v>0.02435363328095264</v>
       </c>
       <c r="O6">
         <v>2429.695498018293</v>
@@ -852,14 +861,11 @@
       <c r="Q6">
         <v>74.05466764373705</v>
       </c>
-      <c r="R6">
-        <v>24.33238917902054</v>
-      </c>
       <c r="S6">
         <v>10.47574421404897</v>
       </c>
       <c r="T6">
-        <v>0.1593653223408182</v>
+        <v>0.04859385058716725</v>
       </c>
       <c r="U6">
         <v>1614.457231753971</v>
@@ -871,13 +877,13 @@
         <v>2848.334435390076</v>
       </c>
       <c r="X6">
-        <v>-69.78361123126524</v>
+        <v>-90.42174904076091</v>
       </c>
       <c r="Y6">
         <v>-560.2134902778434</v>
       </c>
       <c r="Z6">
-        <v>-4.874121442573596</v>
+        <v>-0.1949424822223591</v>
       </c>
       <c r="AA6">
         <v>-22682.49774842896</v>
@@ -888,10 +894,13 @@
       <c r="AC6">
         <v>1650.809797616908</v>
       </c>
+      <c r="AD6">
+        <v>12.10558002268954</v>
+      </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:30">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1"/>
       <c r="H7">
@@ -907,13 +916,13 @@
         <v>1.728207517932824</v>
       </c>
       <c r="L7">
-        <v>9.331544107175432</v>
+        <v>10.16354578411847</v>
       </c>
       <c r="M7">
         <v>57.03469639930336</v>
       </c>
       <c r="N7">
-        <v>0.5010959969595206</v>
+        <v>0.0241441214502629</v>
       </c>
       <c r="O7">
         <v>2411.563275176566</v>
@@ -924,14 +933,11 @@
       <c r="Q7">
         <v>73.58010417688638</v>
       </c>
-      <c r="R7">
-        <v>24.33238917902054</v>
-      </c>
       <c r="S7">
         <v>10.47574421404897</v>
       </c>
       <c r="T7">
-        <v>0.1593653223408182</v>
+        <v>0.04859385058716725</v>
       </c>
       <c r="U7">
         <v>1614.457231753971</v>
@@ -943,13 +949,13 @@
         <v>2848.334435390076</v>
       </c>
       <c r="X7">
-        <v>-68.98305189273378</v>
+        <v>-89.52987781849515</v>
       </c>
       <c r="Y7">
         <v>-559.8712197789846</v>
       </c>
       <c r="Z7">
-        <v>-4.851594647254387</v>
+        <v>-0.1928473639154618</v>
       </c>
       <c r="AA7">
         <v>-22501.17552001169</v>
@@ -960,10 +966,13 @@
       <c r="AC7">
         <v>1665.590334681561</v>
       </c>
+      <c r="AD7">
+        <v>12.10558002268954</v>
+      </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:30">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1"/>
       <c r="H8">
@@ -979,13 +988,13 @@
         <v>1.742858944904374</v>
       </c>
       <c r="L8">
-        <v>9.251488078240072</v>
+        <v>10.07435855592485</v>
       </c>
       <c r="M8">
         <v>57.00046930874851</v>
       </c>
       <c r="N8">
-        <v>0.4988433147491378</v>
+        <v>0.02393460937219061</v>
       </c>
       <c r="O8">
         <v>2393.431030788459</v>
@@ -996,14 +1005,11 @@
       <c r="Q8">
         <v>73.10554014705122</v>
       </c>
-      <c r="R8">
-        <v>24.33238917902054</v>
-      </c>
       <c r="S8">
         <v>10.47574421404897</v>
       </c>
       <c r="T8">
-        <v>0.1593653223408182</v>
+        <v>0.04859385058716725</v>
       </c>
       <c r="U8">
         <v>1614.457231753971</v>
@@ -1015,13 +1021,13 @@
         <v>2848.334435390076</v>
       </c>
       <c r="X8">
-        <v>-68.18249160338019</v>
+        <v>-88.63800553655892</v>
       </c>
       <c r="Y8">
         <v>-559.5289488734361</v>
       </c>
       <c r="Z8">
-        <v>-4.82906782515056</v>
+        <v>-0.1907522431347388</v>
       </c>
       <c r="AA8">
         <v>-22319.85307613062</v>
@@ -1031,6 +1037,9 @@
       </c>
       <c r="AC8">
         <v>1680.370889299316</v>
+      </c>
+      <c r="AD8">
+        <v>12.10558002268954</v>
       </c>
     </row>
   </sheetData>

--- a/CVX_Kenya/Optimization/ Biomass_price_petr.xlsx
+++ b/CVX_Kenya/Optimization/ Biomass_price_petr.xlsx
@@ -1,20 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\CVX_Kenya\Optimization\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AB0844-41FF-4DF0-AFE9-0EA22C282B02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>Intervention</t>
   </si>
@@ -125,9 +141,6 @@
   </si>
   <si>
     <t>kha/FU</t>
-  </si>
-  <si>
-    <t>m3/FU</t>
   </si>
   <si>
     <t>-2015.6985871271584</t>
@@ -148,8 +161,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +225,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -258,7 +279,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -290,9 +311,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -324,6 +363,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -499,14 +556,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="V26" sqref="V26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="25" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -589,11 +657,8 @@
       <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,236 +743,233 @@
       <c r="AC2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="B4" s="1"/>
       <c r="H4">
-        <v>5421.299537870102</v>
+        <v>5421.2995378701016</v>
       </c>
       <c r="I4">
-        <v>3216.06195774395</v>
+        <v>3216.0619577439502</v>
       </c>
       <c r="J4">
-        <v>0.5932271285285712</v>
+        <v>0.59322712852857118</v>
       </c>
       <c r="K4">
-        <v>1.685694992540851</v>
+        <v>1.6856949925408511</v>
       </c>
       <c r="L4">
         <v>10.43110683280975</v>
       </c>
       <c r="M4">
-        <v>57.13737742694502</v>
+        <v>57.137377426945022</v>
       </c>
       <c r="N4">
-        <v>0.02477265619290847</v>
+        <v>2.4772656192908471E-2</v>
       </c>
       <c r="O4">
-        <v>2465.959879061207</v>
+        <v>2465.9598790612072</v>
       </c>
       <c r="P4">
         <v>122.70856591966</v>
       </c>
       <c r="Q4">
-        <v>75.00379288429394</v>
+        <v>75.003792884293944</v>
+      </c>
+      <c r="R4">
+        <v>12.105580022689541</v>
       </c>
       <c r="S4">
-        <v>10.47574421404897</v>
+        <v>10.475744214048969</v>
       </c>
       <c r="T4">
-        <v>0.04859385058716725</v>
+        <v>4.8593850587167253E-2</v>
       </c>
       <c r="U4">
         <v>1614.457231753971</v>
       </c>
       <c r="V4">
-        <v>278.0264926441014</v>
+        <v>278.02649264410138</v>
       </c>
       <c r="W4">
-        <v>2848.334435390076</v>
+        <v>2848.3344353900761</v>
       </c>
       <c r="X4">
-        <v>-92.20548830540793</v>
+        <v>-92.205488305407926</v>
       </c>
       <c r="Y4">
-        <v>-560.8980300554013</v>
+        <v>-560.89803005540125</v>
       </c>
       <c r="Z4">
-        <v>-0.1991327113419175</v>
+        <v>-0.19913271134191751</v>
       </c>
       <c r="AA4">
         <v>-23045.1415588581</v>
       </c>
       <c r="AB4">
-        <v>-472.0114361988381</v>
+        <v>-472.01143619883811</v>
       </c>
       <c r="AC4">
-        <v>1621.248776193475</v>
-      </c>
-      <c r="AD4">
-        <v>12.10558002268954</v>
+        <v>1621.2487761934749</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1"/>
       <c r="H5">
-        <v>5421.299537870102</v>
+        <v>5421.2995378701016</v>
       </c>
       <c r="I5">
-        <v>3189.691136772744</v>
+        <v>3189.6911367727439</v>
       </c>
       <c r="J5">
         <v>0.588362829703724</v>
       </c>
       <c r="K5">
-        <v>1.699631502050461</v>
+        <v>1.6996315020504611</v>
       </c>
       <c r="L5">
-        <v>10.34191992259002</v>
+        <v>10.341919922590019</v>
       </c>
       <c r="M5">
-        <v>57.10315045840071</v>
+        <v>57.103150458400712</v>
       </c>
       <c r="N5">
-        <v>0.02456314486244082</v>
+        <v>2.4563144862440819E-2</v>
       </c>
       <c r="O5">
-        <v>2447.827699313173</v>
+        <v>2447.8276993131731</v>
       </c>
       <c r="P5">
         <v>121.2305157266092</v>
       </c>
       <c r="Q5">
-        <v>74.52923054620624</v>
+        <v>74.529230546206236</v>
+      </c>
+      <c r="R5">
+        <v>12.105580022689541</v>
       </c>
       <c r="S5">
-        <v>10.47574421404897</v>
+        <v>10.475744214048969</v>
       </c>
       <c r="T5">
-        <v>0.04859385058716725</v>
+        <v>4.8593850587167253E-2</v>
       </c>
       <c r="U5">
         <v>1614.457231753971</v>
       </c>
       <c r="V5">
-        <v>278.0264926441014</v>
+        <v>278.02649264410138</v>
       </c>
       <c r="W5">
-        <v>2848.334435390076</v>
+        <v>2848.3344353900761</v>
       </c>
       <c r="X5">
-        <v>-91.31361920321069</v>
+        <v>-91.313619203210692</v>
       </c>
       <c r="Y5">
-        <v>-560.5557603699581</v>
+        <v>-560.55576036995808</v>
       </c>
       <c r="Z5">
         <v>-0.197037598037241</v>
       </c>
       <c r="AA5">
-        <v>-22863.81976137776</v>
+        <v>-22863.819761377759</v>
       </c>
       <c r="AB5">
-        <v>-467.265812817961</v>
+        <v>-467.26581281796098</v>
       </c>
       <c r="AC5">
-        <v>1636.029278123984</v>
-      </c>
-      <c r="AD5">
-        <v>12.10558002268954</v>
+        <v>1636.0292781239841</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1"/>
       <c r="H6">
-        <v>5421.299537870102</v>
+        <v>5421.2995378701016</v>
       </c>
       <c r="I6">
         <v>3163.320284464397</v>
       </c>
       <c r="J6">
-        <v>0.5834985250985023</v>
+        <v>0.58349852509850231</v>
       </c>
       <c r="K6">
         <v>1.713800390208676</v>
       </c>
       <c r="L6">
-        <v>10.25273290634505</v>
+        <v>10.252732906345051</v>
       </c>
       <c r="M6">
-        <v>57.06892344918924</v>
+        <v>57.068923449189242</v>
       </c>
       <c r="N6">
-        <v>0.02435363328095264</v>
+        <v>2.4353633280952639E-2</v>
       </c>
       <c r="O6">
-        <v>2429.695498018293</v>
+        <v>2429.6954980182932</v>
       </c>
       <c r="P6">
-        <v>119.7524637773167</v>
+        <v>119.75246377731671</v>
       </c>
       <c r="Q6">
-        <v>74.05466764373705</v>
+        <v>74.054667643737048</v>
+      </c>
+      <c r="R6">
+        <v>12.105580022689541</v>
       </c>
       <c r="S6">
-        <v>10.47574421404897</v>
+        <v>10.475744214048969</v>
       </c>
       <c r="T6">
-        <v>0.04859385058716725</v>
+        <v>4.8593850587167253E-2</v>
       </c>
       <c r="U6">
         <v>1614.457231753971</v>
       </c>
       <c r="V6">
-        <v>278.0264926441014</v>
+        <v>278.02649264410138</v>
       </c>
       <c r="W6">
-        <v>2848.334435390076</v>
+        <v>2848.3344353900761</v>
       </c>
       <c r="X6">
-        <v>-90.42174904076091</v>
+        <v>-90.421749040760915</v>
       </c>
       <c r="Y6">
-        <v>-560.2134902778434</v>
+        <v>-560.21349027784345</v>
       </c>
       <c r="Z6">
         <v>-0.1949424822223591</v>
       </c>
       <c r="AA6">
-        <v>-22682.49774842896</v>
+        <v>-22682.497748428959</v>
       </c>
       <c r="AB6">
         <v>-462.5201837932691</v>
       </c>
       <c r="AC6">
-        <v>1650.809797616908</v>
-      </c>
-      <c r="AD6">
-        <v>12.10558002268954</v>
+        <v>1650.8097976169081</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1"/>
       <c r="H7">
-        <v>5421.299537870102</v>
+        <v>5421.2995378701016</v>
       </c>
       <c r="I7">
-        <v>3136.949400818907</v>
+        <v>3136.9494008189072</v>
       </c>
       <c r="J7">
         <v>0.5786342147129061</v>
@@ -916,16 +978,16 @@
         <v>1.728207517932824</v>
       </c>
       <c r="L7">
-        <v>10.16354578411847</v>
+        <v>10.163545784118471</v>
       </c>
       <c r="M7">
-        <v>57.03469639930336</v>
+        <v>57.034696399303357</v>
       </c>
       <c r="N7">
-        <v>0.0241441214502629</v>
+        <v>2.4144121450262901E-2</v>
       </c>
       <c r="O7">
-        <v>2411.563275176566</v>
+        <v>2411.5632751765661</v>
       </c>
       <c r="P7">
         <v>118.2744100708514</v>
@@ -933,113 +995,454 @@
       <c r="Q7">
         <v>73.58010417688638</v>
       </c>
+      <c r="R7">
+        <v>12.105580022689541</v>
+      </c>
       <c r="S7">
-        <v>10.47574421404897</v>
+        <v>10.475744214048969</v>
       </c>
       <c r="T7">
-        <v>0.04859385058716725</v>
+        <v>4.8593850587167253E-2</v>
       </c>
       <c r="U7">
         <v>1614.457231753971</v>
       </c>
       <c r="V7">
-        <v>278.0264926441014</v>
+        <v>278.02649264410138</v>
       </c>
       <c r="W7">
-        <v>2848.334435390076</v>
+        <v>2848.3344353900761</v>
       </c>
       <c r="X7">
-        <v>-89.52987781849515</v>
+        <v>-89.529877818495152</v>
       </c>
       <c r="Y7">
         <v>-559.8712197789846</v>
       </c>
       <c r="Z7">
-        <v>-0.1928473639154618</v>
+        <v>-0.19284736391546181</v>
       </c>
       <c r="AA7">
         <v>-22501.17552001169</v>
       </c>
       <c r="AB7">
-        <v>-457.7745491247624</v>
+        <v>-457.77454912476242</v>
       </c>
       <c r="AC7">
         <v>1665.590334681561</v>
       </c>
-      <c r="AD7">
-        <v>12.10558002268954</v>
-      </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1"/>
       <c r="H8">
-        <v>5421.299537870102</v>
+        <v>5421.2995378701016</v>
       </c>
       <c r="I8">
         <v>3110.578485838138</v>
       </c>
       <c r="J8">
-        <v>0.5737698985472788</v>
+        <v>0.57376989854727878</v>
       </c>
       <c r="K8">
-        <v>1.742858944904374</v>
+        <v>1.7428589449043741</v>
       </c>
       <c r="L8">
-        <v>10.07435855592485</v>
+        <v>10.074358555924849</v>
       </c>
       <c r="M8">
-        <v>57.00046930874851</v>
+        <v>57.000469308748507</v>
       </c>
       <c r="N8">
-        <v>0.02393460937219061</v>
+        <v>2.3934609372190611E-2</v>
       </c>
       <c r="O8">
-        <v>2393.431030788459</v>
+        <v>2393.4310307884589</v>
       </c>
       <c r="P8">
-        <v>116.7963546090759</v>
+        <v>116.79635460907591</v>
       </c>
       <c r="Q8">
-        <v>73.10554014705122</v>
+        <v>73.105540147051215</v>
+      </c>
+      <c r="R8">
+        <v>12.105580022689541</v>
       </c>
       <c r="S8">
-        <v>10.47574421404897</v>
+        <v>10.475744214048969</v>
       </c>
       <c r="T8">
-        <v>0.04859385058716725</v>
+        <v>4.8593850587167253E-2</v>
       </c>
       <c r="U8">
         <v>1614.457231753971</v>
       </c>
       <c r="V8">
-        <v>278.0264926441014</v>
+        <v>278.02649264410138</v>
       </c>
       <c r="W8">
-        <v>2848.334435390076</v>
+        <v>2848.3344353900761</v>
       </c>
       <c r="X8">
-        <v>-88.63800553655892</v>
+        <v>-88.638005536558921</v>
       </c>
       <c r="Y8">
-        <v>-559.5289488734361</v>
+        <v>-559.52894887343609</v>
       </c>
       <c r="Z8">
-        <v>-0.1907522431347388</v>
+        <v>-0.19075224313473879</v>
       </c>
       <c r="AA8">
-        <v>-22319.85307613062</v>
+        <v>-22319.853076130621</v>
       </c>
       <c r="AB8">
-        <v>-453.0289088264108</v>
+        <v>-453.02890882641083</v>
       </c>
       <c r="AC8">
-        <v>1680.370889299316</v>
-      </c>
-      <c r="AD8">
-        <v>12.10558002268954</v>
+        <v>1680.3708892993161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <f t="array" ref="H11:AC15">H4:AC8/H4:H8</f>
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0.59322712852857118</v>
+      </c>
+      <c r="J11">
+        <v>1.0942526314670963E-4</v>
+      </c>
+      <c r="K11">
+        <v>3.1093928324113967E-4</v>
+      </c>
+      <c r="L11">
+        <v>1.9240971209843684E-3</v>
+      </c>
+      <c r="M11">
+        <v>1.053942454716179E-2</v>
+      </c>
+      <c r="N11">
+        <v>4.5695051564409693E-6</v>
+      </c>
+      <c r="O11">
+        <v>0.45486508572998413</v>
+      </c>
+      <c r="P11">
+        <v>2.2634529795390951E-2</v>
+      </c>
+      <c r="Q11">
+        <v>1.3835020987193254E-2</v>
+      </c>
+      <c r="R11">
+        <v>2.2329664572353683E-3</v>
+      </c>
+      <c r="S11">
+        <v>1.9323308260079349E-3</v>
+      </c>
+      <c r="T11">
+        <v>8.9635059357481307E-6</v>
+      </c>
+      <c r="U11">
+        <v>0.29779893556448872</v>
+      </c>
+      <c r="V11">
+        <v>5.1284104614026049E-2</v>
+      </c>
+      <c r="W11">
+        <v>0.52539698562922765</v>
+      </c>
+      <c r="X11">
+        <v>-1.7008004752608309E-2</v>
+      </c>
+      <c r="Y11">
+        <v>-0.10346191464560997</v>
+      </c>
+      <c r="Z11">
+        <v>-3.6731545628661567E-5</v>
+      </c>
+      <c r="AA11">
+        <v>-4.2508519217353529</v>
+      </c>
+      <c r="AB11">
+        <v>-8.7066105257906493E-2</v>
+      </c>
+      <c r="AC11">
+        <v>0.29905168767531792</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0.58836282970372389</v>
+      </c>
+      <c r="J12">
+        <v>1.0852800617153827E-4</v>
+      </c>
+      <c r="K12">
+        <v>3.1350997859052178E-4</v>
+      </c>
+      <c r="L12">
+        <v>1.9076459159556255E-3</v>
+      </c>
+      <c r="M12">
+        <v>1.0533111122067822E-2</v>
+      </c>
+      <c r="N12">
+        <v>4.5308591954487517E-6</v>
+      </c>
+      <c r="O12">
+        <v>0.45152046704190518</v>
+      </c>
+      <c r="P12">
+        <v>2.2361892177283706E-2</v>
+      </c>
+      <c r="Q12">
+        <v>1.3747484348648807E-2</v>
+      </c>
+      <c r="R12">
+        <v>2.2329664572353683E-3</v>
+      </c>
+      <c r="S12">
+        <v>1.9323308260079349E-3</v>
+      </c>
+      <c r="T12">
+        <v>8.9635059357481307E-6</v>
+      </c>
+      <c r="U12">
+        <v>0.29779893556448872</v>
+      </c>
+      <c r="V12">
+        <v>5.1284104614026049E-2</v>
+      </c>
+      <c r="W12">
+        <v>0.52539698562922765</v>
+      </c>
+      <c r="X12">
+        <v>-1.6843492702320894E-2</v>
+      </c>
+      <c r="Y12">
+        <v>-0.10339878039467028</v>
+      </c>
+      <c r="Z12">
+        <v>-3.6345086018739398E-5</v>
+      </c>
+      <c r="AA12">
+        <v>-4.2174057348545633</v>
+      </c>
+      <c r="AB12">
+        <v>-8.6190738872462022E-2</v>
+      </c>
+      <c r="AC12">
+        <v>0.30177806385639055</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0.58349852509850242</v>
+      </c>
+      <c r="J13">
+        <v>1.0763074813013281E-4</v>
+      </c>
+      <c r="K13">
+        <v>3.1612353795193302E-4</v>
+      </c>
+      <c r="L13">
+        <v>1.8911946913697196E-3</v>
+      </c>
+      <c r="M13">
+        <v>1.0526797689472485E-2</v>
+      </c>
+      <c r="N13">
+        <v>4.4922131881538863E-6</v>
+      </c>
+      <c r="O13">
+        <v>0.44817584437934638</v>
+      </c>
+      <c r="P13">
+        <v>2.2089254235224304E-2</v>
+      </c>
+      <c r="Q13">
+        <v>1.3659947605999898E-2</v>
+      </c>
+      <c r="R13">
+        <v>2.2329664572353683E-3</v>
+      </c>
+      <c r="S13">
+        <v>1.9323308260079349E-3</v>
+      </c>
+      <c r="T13">
+        <v>8.9635059357481307E-6</v>
+      </c>
+      <c r="U13">
+        <v>0.29779893556448872</v>
+      </c>
+      <c r="V13">
+        <v>5.1284104614026049E-2</v>
+      </c>
+      <c r="W13">
+        <v>0.52539698562922765</v>
+      </c>
+      <c r="X13">
+        <v>-1.6678980456461819E-2</v>
+      </c>
+      <c r="Y13">
+        <v>-0.10333564606871692</v>
+      </c>
+      <c r="Z13">
+        <v>-3.5958625945790728E-5</v>
+      </c>
+      <c r="AA13">
+        <v>-4.1839595082289751</v>
+      </c>
+      <c r="AB13">
+        <v>-8.5315371445972926E-2</v>
+      </c>
+      <c r="AC13">
+        <v>0.30450444327698439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0.5786342147129061</v>
+      </c>
+      <c r="J14">
+        <v>1.0673348902249323E-4</v>
+      </c>
+      <c r="K14">
+        <v>3.1878104241622393E-4</v>
+      </c>
+      <c r="L14">
+        <v>1.8747434472346982E-3</v>
+      </c>
+      <c r="M14">
+        <v>1.0520484249374445E-2</v>
+      </c>
+      <c r="N14">
+        <v>4.4535671348918948E-6</v>
+      </c>
+      <c r="O14">
+        <v>0.44483121774230749</v>
+      </c>
+      <c r="P14">
+        <v>2.1816615969040991E-2</v>
+      </c>
+      <c r="Q14">
+        <v>1.3572410759246525E-2</v>
+      </c>
+      <c r="R14">
+        <v>2.2329664572353683E-3</v>
+      </c>
+      <c r="S14">
+        <v>1.9323308260079349E-3</v>
+      </c>
+      <c r="T14">
+        <v>8.9635059357481307E-6</v>
+      </c>
+      <c r="U14">
+        <v>0.29779893556448872</v>
+      </c>
+      <c r="V14">
+        <v>5.1284104614026049E-2</v>
+      </c>
+      <c r="W14">
+        <v>0.52539698562922765</v>
+      </c>
+      <c r="X14">
+        <v>-1.6514468015111611E-2</v>
+      </c>
+      <c r="Y14">
+        <v>-0.1032725116677365</v>
+      </c>
+      <c r="Z14">
+        <v>-3.5572165413170829E-5</v>
+      </c>
+      <c r="AA14">
+        <v>-4.1505132418585857</v>
+      </c>
+      <c r="AB14">
+        <v>-8.4440002978439191E-2</v>
+      </c>
+      <c r="AC14">
+        <v>0.30723082593881751</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0.57376989854727889</v>
+      </c>
+      <c r="J15">
+        <v>1.0583622884868288E-4</v>
+      </c>
+      <c r="K15">
+        <v>3.2148360973780496E-4</v>
+      </c>
+      <c r="L15">
+        <v>1.8582921835532487E-3</v>
+      </c>
+      <c r="M15">
+        <v>1.0514170801774702E-2</v>
+      </c>
+      <c r="N15">
+        <v>4.4149210359983071E-6</v>
+      </c>
+      <c r="O15">
+        <v>0.44148658713087463</v>
+      </c>
+      <c r="P15">
+        <v>2.1543977379077341E-2</v>
+      </c>
+      <c r="Q15">
+        <v>1.3484873808646372E-2</v>
+      </c>
+      <c r="R15">
+        <v>2.2329664572353683E-3</v>
+      </c>
+      <c r="S15">
+        <v>1.9323308260079349E-3</v>
+      </c>
+      <c r="T15">
+        <v>8.9635059357481307E-6</v>
+      </c>
+      <c r="U15">
+        <v>0.29779893556448872</v>
+      </c>
+      <c r="V15">
+        <v>5.1284104614026049E-2</v>
+      </c>
+      <c r="W15">
+        <v>0.52539698562922765</v>
+      </c>
+      <c r="X15">
+        <v>-1.6349955378297112E-2</v>
+      </c>
+      <c r="Y15">
+        <v>-0.10320937719173909</v>
+      </c>
+      <c r="Z15">
+        <v>-3.5185704424234922E-5</v>
+      </c>
+      <c r="AA15">
+        <v>-4.1170669357442575</v>
+      </c>
+      <c r="AB15">
+        <v>-8.3564633472437685E-2</v>
+      </c>
+      <c r="AC15">
+        <v>0.30995721183845404</v>
       </c>
     </row>
   </sheetData>

--- a/CVX_Kenya/Optimization/ Biomass_price_petr.xlsx
+++ b/CVX_Kenya/Optimization/ Biomass_price_petr.xlsx
@@ -1,31 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\CVX_Kenya\Optimization\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AB0844-41FF-4DF0-AFE9-0EA22C282B02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -161,8 +145,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,14 +209,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -279,7 +255,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,27 +287,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,24 +321,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -556,25 +496,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AC8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="V26" sqref="V26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="8" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="25" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="9.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -658,7 +587,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -744,232 +673,232 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="1"/>
       <c r="H4">
-        <v>5421.2995378701016</v>
+        <v>5421.299537870102</v>
       </c>
       <c r="I4">
-        <v>3216.0619577439502</v>
+        <v>3216.06195774395</v>
       </c>
       <c r="J4">
-        <v>0.59322712852857118</v>
+        <v>0.5932271285285712</v>
       </c>
       <c r="K4">
-        <v>1.6856949925408511</v>
+        <v>1.685694992540851</v>
       </c>
       <c r="L4">
         <v>10.43110683280975</v>
       </c>
       <c r="M4">
-        <v>57.137377426945022</v>
+        <v>57.13737742694502</v>
       </c>
       <c r="N4">
-        <v>2.4772656192908471E-2</v>
+        <v>0.02477265619290847</v>
       </c>
       <c r="O4">
-        <v>2465.9598790612072</v>
+        <v>2465.959879061207</v>
       </c>
       <c r="P4">
         <v>122.70856591966</v>
       </c>
       <c r="Q4">
-        <v>75.003792884293944</v>
+        <v>75.00379288429394</v>
       </c>
       <c r="R4">
-        <v>12.105580022689541</v>
+        <v>12.10558002268954</v>
       </c>
       <c r="S4">
-        <v>10.475744214048969</v>
+        <v>10.47574421404897</v>
       </c>
       <c r="T4">
-        <v>4.8593850587167253E-2</v>
+        <v>0.04859385058716725</v>
       </c>
       <c r="U4">
         <v>1614.457231753971</v>
       </c>
       <c r="V4">
-        <v>278.02649264410138</v>
+        <v>278.0264926441014</v>
       </c>
       <c r="W4">
-        <v>2848.3344353900761</v>
+        <v>2848.334435390076</v>
       </c>
       <c r="X4">
-        <v>-92.205488305407926</v>
+        <v>-92.20548830540793</v>
       </c>
       <c r="Y4">
-        <v>-560.89803005540125</v>
+        <v>-560.8980300554013</v>
       </c>
       <c r="Z4">
-        <v>-0.19913271134191751</v>
+        <v>-0.1991327113419175</v>
       </c>
       <c r="AA4">
         <v>-23045.1415588581</v>
       </c>
       <c r="AB4">
-        <v>-472.01143619883811</v>
+        <v>-472.0114361988381</v>
       </c>
       <c r="AC4">
-        <v>1621.2487761934749</v>
+        <v>1621.248776193475</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="1"/>
       <c r="H5">
-        <v>5421.2995378701016</v>
+        <v>5421.299537870102</v>
       </c>
       <c r="I5">
-        <v>3189.6911367727439</v>
+        <v>3189.691136772744</v>
       </c>
       <c r="J5">
         <v>0.588362829703724</v>
       </c>
       <c r="K5">
-        <v>1.6996315020504611</v>
+        <v>1.699631502050461</v>
       </c>
       <c r="L5">
-        <v>10.341919922590019</v>
+        <v>10.34191992259002</v>
       </c>
       <c r="M5">
-        <v>57.103150458400712</v>
+        <v>57.10315045840071</v>
       </c>
       <c r="N5">
-        <v>2.4563144862440819E-2</v>
+        <v>0.02456314486244082</v>
       </c>
       <c r="O5">
-        <v>2447.8276993131731</v>
+        <v>2447.827699313173</v>
       </c>
       <c r="P5">
         <v>121.2305157266092</v>
       </c>
       <c r="Q5">
-        <v>74.529230546206236</v>
+        <v>74.52923054620624</v>
       </c>
       <c r="R5">
-        <v>12.105580022689541</v>
+        <v>12.10558002268954</v>
       </c>
       <c r="S5">
-        <v>10.475744214048969</v>
+        <v>10.47574421404897</v>
       </c>
       <c r="T5">
-        <v>4.8593850587167253E-2</v>
+        <v>0.04859385058716725</v>
       </c>
       <c r="U5">
         <v>1614.457231753971</v>
       </c>
       <c r="V5">
-        <v>278.02649264410138</v>
+        <v>278.0264926441014</v>
       </c>
       <c r="W5">
-        <v>2848.3344353900761</v>
+        <v>2848.334435390076</v>
       </c>
       <c r="X5">
-        <v>-91.313619203210692</v>
+        <v>-91.31361920321069</v>
       </c>
       <c r="Y5">
-        <v>-560.55576036995808</v>
+        <v>-560.5557603699581</v>
       </c>
       <c r="Z5">
         <v>-0.197037598037241</v>
       </c>
       <c r="AA5">
-        <v>-22863.819761377759</v>
+        <v>-22863.81976137776</v>
       </c>
       <c r="AB5">
-        <v>-467.26581281796098</v>
+        <v>-467.265812817961</v>
       </c>
       <c r="AC5">
-        <v>1636.0292781239841</v>
+        <v>1636.029278123984</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="1"/>
       <c r="H6">
-        <v>5421.2995378701016</v>
+        <v>5421.299537870102</v>
       </c>
       <c r="I6">
         <v>3163.320284464397</v>
       </c>
       <c r="J6">
-        <v>0.58349852509850231</v>
+        <v>0.5834985250985023</v>
       </c>
       <c r="K6">
         <v>1.713800390208676</v>
       </c>
       <c r="L6">
-        <v>10.252732906345051</v>
+        <v>10.25273290634505</v>
       </c>
       <c r="M6">
-        <v>57.068923449189242</v>
+        <v>57.06892344918924</v>
       </c>
       <c r="N6">
-        <v>2.4353633280952639E-2</v>
+        <v>0.02435363328095264</v>
       </c>
       <c r="O6">
-        <v>2429.6954980182932</v>
+        <v>2429.695498018293</v>
       </c>
       <c r="P6">
-        <v>119.75246377731671</v>
+        <v>119.7524637773167</v>
       </c>
       <c r="Q6">
-        <v>74.054667643737048</v>
+        <v>74.05466764373705</v>
       </c>
       <c r="R6">
-        <v>12.105580022689541</v>
+        <v>12.10558002268954</v>
       </c>
       <c r="S6">
-        <v>10.475744214048969</v>
+        <v>10.47574421404897</v>
       </c>
       <c r="T6">
-        <v>4.8593850587167253E-2</v>
+        <v>0.04859385058716725</v>
       </c>
       <c r="U6">
         <v>1614.457231753971</v>
       </c>
       <c r="V6">
-        <v>278.02649264410138</v>
+        <v>278.0264926441014</v>
       </c>
       <c r="W6">
-        <v>2848.3344353900761</v>
+        <v>2848.334435390076</v>
       </c>
       <c r="X6">
-        <v>-90.421749040760915</v>
+        <v>-90.42174904076091</v>
       </c>
       <c r="Y6">
-        <v>-560.21349027784345</v>
+        <v>-560.2134902778434</v>
       </c>
       <c r="Z6">
         <v>-0.1949424822223591</v>
       </c>
       <c r="AA6">
-        <v>-22682.497748428959</v>
+        <v>-22682.49774842896</v>
       </c>
       <c r="AB6">
         <v>-462.5201837932691</v>
       </c>
       <c r="AC6">
-        <v>1650.8097976169081</v>
+        <v>1650.809797616908</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="1"/>
       <c r="H7">
-        <v>5421.2995378701016</v>
+        <v>5421.299537870102</v>
       </c>
       <c r="I7">
-        <v>3136.9494008189072</v>
+        <v>3136.949400818907</v>
       </c>
       <c r="J7">
         <v>0.5786342147129061</v>
@@ -978,16 +907,16 @@
         <v>1.728207517932824</v>
       </c>
       <c r="L7">
-        <v>10.163545784118471</v>
+        <v>10.16354578411847</v>
       </c>
       <c r="M7">
-        <v>57.034696399303357</v>
+        <v>57.03469639930336</v>
       </c>
       <c r="N7">
-        <v>2.4144121450262901E-2</v>
+        <v>0.0241441214502629</v>
       </c>
       <c r="O7">
-        <v>2411.5632751765661</v>
+        <v>2411.563275176566</v>
       </c>
       <c r="P7">
         <v>118.2744100708514</v>
@@ -996,453 +925,112 @@
         <v>73.58010417688638</v>
       </c>
       <c r="R7">
-        <v>12.105580022689541</v>
+        <v>12.10558002268954</v>
       </c>
       <c r="S7">
-        <v>10.475744214048969</v>
+        <v>10.47574421404897</v>
       </c>
       <c r="T7">
-        <v>4.8593850587167253E-2</v>
+        <v>0.04859385058716725</v>
       </c>
       <c r="U7">
         <v>1614.457231753971</v>
       </c>
       <c r="V7">
-        <v>278.02649264410138</v>
+        <v>278.0264926441014</v>
       </c>
       <c r="W7">
-        <v>2848.3344353900761</v>
+        <v>2848.334435390076</v>
       </c>
       <c r="X7">
-        <v>-89.529877818495152</v>
+        <v>-89.52987781849515</v>
       </c>
       <c r="Y7">
         <v>-559.8712197789846</v>
       </c>
       <c r="Z7">
-        <v>-0.19284736391546181</v>
+        <v>-0.1928473639154618</v>
       </c>
       <c r="AA7">
         <v>-22501.17552001169</v>
       </c>
       <c r="AB7">
-        <v>-457.77454912476242</v>
+        <v>-457.7745491247624</v>
       </c>
       <c r="AC7">
         <v>1665.590334681561</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="1"/>
       <c r="H8">
-        <v>5421.2995378701016</v>
+        <v>5421.299537870102</v>
       </c>
       <c r="I8">
         <v>3110.578485838138</v>
       </c>
       <c r="J8">
-        <v>0.57376989854727878</v>
+        <v>0.5737698985472788</v>
       </c>
       <c r="K8">
-        <v>1.7428589449043741</v>
+        <v>1.742858944904374</v>
       </c>
       <c r="L8">
-        <v>10.074358555924849</v>
+        <v>10.07435855592485</v>
       </c>
       <c r="M8">
-        <v>57.000469308748507</v>
+        <v>57.00046930874851</v>
       </c>
       <c r="N8">
-        <v>2.3934609372190611E-2</v>
+        <v>0.02393460937219061</v>
       </c>
       <c r="O8">
-        <v>2393.4310307884589</v>
+        <v>2393.431030788459</v>
       </c>
       <c r="P8">
-        <v>116.79635460907591</v>
+        <v>116.7963546090759</v>
       </c>
       <c r="Q8">
-        <v>73.105540147051215</v>
+        <v>73.10554014705122</v>
       </c>
       <c r="R8">
-        <v>12.105580022689541</v>
+        <v>12.10558002268954</v>
       </c>
       <c r="S8">
-        <v>10.475744214048969</v>
+        <v>10.47574421404897</v>
       </c>
       <c r="T8">
-        <v>4.8593850587167253E-2</v>
+        <v>0.04859385058716725</v>
       </c>
       <c r="U8">
         <v>1614.457231753971</v>
       </c>
       <c r="V8">
-        <v>278.02649264410138</v>
+        <v>278.0264926441014</v>
       </c>
       <c r="W8">
-        <v>2848.3344353900761</v>
+        <v>2848.334435390076</v>
       </c>
       <c r="X8">
-        <v>-88.638005536558921</v>
+        <v>-88.63800553655892</v>
       </c>
       <c r="Y8">
-        <v>-559.52894887343609</v>
+        <v>-559.5289488734361</v>
       </c>
       <c r="Z8">
-        <v>-0.19075224313473879</v>
+        <v>-0.1907522431347388</v>
       </c>
       <c r="AA8">
-        <v>-22319.853076130621</v>
+        <v>-22319.85307613062</v>
       </c>
       <c r="AB8">
-        <v>-453.02890882641083</v>
+        <v>-453.0289088264108</v>
       </c>
       <c r="AC8">
-        <v>1680.3708892993161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="H11">
-        <f t="array" ref="H11:AC15">H4:AC8/H4:H8</f>
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>0.59322712852857118</v>
-      </c>
-      <c r="J11">
-        <v>1.0942526314670963E-4</v>
-      </c>
-      <c r="K11">
-        <v>3.1093928324113967E-4</v>
-      </c>
-      <c r="L11">
-        <v>1.9240971209843684E-3</v>
-      </c>
-      <c r="M11">
-        <v>1.053942454716179E-2</v>
-      </c>
-      <c r="N11">
-        <v>4.5695051564409693E-6</v>
-      </c>
-      <c r="O11">
-        <v>0.45486508572998413</v>
-      </c>
-      <c r="P11">
-        <v>2.2634529795390951E-2</v>
-      </c>
-      <c r="Q11">
-        <v>1.3835020987193254E-2</v>
-      </c>
-      <c r="R11">
-        <v>2.2329664572353683E-3</v>
-      </c>
-      <c r="S11">
-        <v>1.9323308260079349E-3</v>
-      </c>
-      <c r="T11">
-        <v>8.9635059357481307E-6</v>
-      </c>
-      <c r="U11">
-        <v>0.29779893556448872</v>
-      </c>
-      <c r="V11">
-        <v>5.1284104614026049E-2</v>
-      </c>
-      <c r="W11">
-        <v>0.52539698562922765</v>
-      </c>
-      <c r="X11">
-        <v>-1.7008004752608309E-2</v>
-      </c>
-      <c r="Y11">
-        <v>-0.10346191464560997</v>
-      </c>
-      <c r="Z11">
-        <v>-3.6731545628661567E-5</v>
-      </c>
-      <c r="AA11">
-        <v>-4.2508519217353529</v>
-      </c>
-      <c r="AB11">
-        <v>-8.7066105257906493E-2</v>
-      </c>
-      <c r="AC11">
-        <v>0.29905168767531792</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>0.58836282970372389</v>
-      </c>
-      <c r="J12">
-        <v>1.0852800617153827E-4</v>
-      </c>
-      <c r="K12">
-        <v>3.1350997859052178E-4</v>
-      </c>
-      <c r="L12">
-        <v>1.9076459159556255E-3</v>
-      </c>
-      <c r="M12">
-        <v>1.0533111122067822E-2</v>
-      </c>
-      <c r="N12">
-        <v>4.5308591954487517E-6</v>
-      </c>
-      <c r="O12">
-        <v>0.45152046704190518</v>
-      </c>
-      <c r="P12">
-        <v>2.2361892177283706E-2</v>
-      </c>
-      <c r="Q12">
-        <v>1.3747484348648807E-2</v>
-      </c>
-      <c r="R12">
-        <v>2.2329664572353683E-3</v>
-      </c>
-      <c r="S12">
-        <v>1.9323308260079349E-3</v>
-      </c>
-      <c r="T12">
-        <v>8.9635059357481307E-6</v>
-      </c>
-      <c r="U12">
-        <v>0.29779893556448872</v>
-      </c>
-      <c r="V12">
-        <v>5.1284104614026049E-2</v>
-      </c>
-      <c r="W12">
-        <v>0.52539698562922765</v>
-      </c>
-      <c r="X12">
-        <v>-1.6843492702320894E-2</v>
-      </c>
-      <c r="Y12">
-        <v>-0.10339878039467028</v>
-      </c>
-      <c r="Z12">
-        <v>-3.6345086018739398E-5</v>
-      </c>
-      <c r="AA12">
-        <v>-4.2174057348545633</v>
-      </c>
-      <c r="AB12">
-        <v>-8.6190738872462022E-2</v>
-      </c>
-      <c r="AC12">
-        <v>0.30177806385639055</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>0.58349852509850242</v>
-      </c>
-      <c r="J13">
-        <v>1.0763074813013281E-4</v>
-      </c>
-      <c r="K13">
-        <v>3.1612353795193302E-4</v>
-      </c>
-      <c r="L13">
-        <v>1.8911946913697196E-3</v>
-      </c>
-      <c r="M13">
-        <v>1.0526797689472485E-2</v>
-      </c>
-      <c r="N13">
-        <v>4.4922131881538863E-6</v>
-      </c>
-      <c r="O13">
-        <v>0.44817584437934638</v>
-      </c>
-      <c r="P13">
-        <v>2.2089254235224304E-2</v>
-      </c>
-      <c r="Q13">
-        <v>1.3659947605999898E-2</v>
-      </c>
-      <c r="R13">
-        <v>2.2329664572353683E-3</v>
-      </c>
-      <c r="S13">
-        <v>1.9323308260079349E-3</v>
-      </c>
-      <c r="T13">
-        <v>8.9635059357481307E-6</v>
-      </c>
-      <c r="U13">
-        <v>0.29779893556448872</v>
-      </c>
-      <c r="V13">
-        <v>5.1284104614026049E-2</v>
-      </c>
-      <c r="W13">
-        <v>0.52539698562922765</v>
-      </c>
-      <c r="X13">
-        <v>-1.6678980456461819E-2</v>
-      </c>
-      <c r="Y13">
-        <v>-0.10333564606871692</v>
-      </c>
-      <c r="Z13">
-        <v>-3.5958625945790728E-5</v>
-      </c>
-      <c r="AA13">
-        <v>-4.1839595082289751</v>
-      </c>
-      <c r="AB13">
-        <v>-8.5315371445972926E-2</v>
-      </c>
-      <c r="AC13">
-        <v>0.30450444327698439</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>0.5786342147129061</v>
-      </c>
-      <c r="J14">
-        <v>1.0673348902249323E-4</v>
-      </c>
-      <c r="K14">
-        <v>3.1878104241622393E-4</v>
-      </c>
-      <c r="L14">
-        <v>1.8747434472346982E-3</v>
-      </c>
-      <c r="M14">
-        <v>1.0520484249374445E-2</v>
-      </c>
-      <c r="N14">
-        <v>4.4535671348918948E-6</v>
-      </c>
-      <c r="O14">
-        <v>0.44483121774230749</v>
-      </c>
-      <c r="P14">
-        <v>2.1816615969040991E-2</v>
-      </c>
-      <c r="Q14">
-        <v>1.3572410759246525E-2</v>
-      </c>
-      <c r="R14">
-        <v>2.2329664572353683E-3</v>
-      </c>
-      <c r="S14">
-        <v>1.9323308260079349E-3</v>
-      </c>
-      <c r="T14">
-        <v>8.9635059357481307E-6</v>
-      </c>
-      <c r="U14">
-        <v>0.29779893556448872</v>
-      </c>
-      <c r="V14">
-        <v>5.1284104614026049E-2</v>
-      </c>
-      <c r="W14">
-        <v>0.52539698562922765</v>
-      </c>
-      <c r="X14">
-        <v>-1.6514468015111611E-2</v>
-      </c>
-      <c r="Y14">
-        <v>-0.1032725116677365</v>
-      </c>
-      <c r="Z14">
-        <v>-3.5572165413170829E-5</v>
-      </c>
-      <c r="AA14">
-        <v>-4.1505132418585857</v>
-      </c>
-      <c r="AB14">
-        <v>-8.4440002978439191E-2</v>
-      </c>
-      <c r="AC14">
-        <v>0.30723082593881751</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>0.57376989854727889</v>
-      </c>
-      <c r="J15">
-        <v>1.0583622884868288E-4</v>
-      </c>
-      <c r="K15">
-        <v>3.2148360973780496E-4</v>
-      </c>
-      <c r="L15">
-        <v>1.8582921835532487E-3</v>
-      </c>
-      <c r="M15">
-        <v>1.0514170801774702E-2</v>
-      </c>
-      <c r="N15">
-        <v>4.4149210359983071E-6</v>
-      </c>
-      <c r="O15">
-        <v>0.44148658713087463</v>
-      </c>
-      <c r="P15">
-        <v>2.1543977379077341E-2</v>
-      </c>
-      <c r="Q15">
-        <v>1.3484873808646372E-2</v>
-      </c>
-      <c r="R15">
-        <v>2.2329664572353683E-3</v>
-      </c>
-      <c r="S15">
-        <v>1.9323308260079349E-3</v>
-      </c>
-      <c r="T15">
-        <v>8.9635059357481307E-6</v>
-      </c>
-      <c r="U15">
-        <v>0.29779893556448872</v>
-      </c>
-      <c r="V15">
-        <v>5.1284104614026049E-2</v>
-      </c>
-      <c r="W15">
-        <v>0.52539698562922765</v>
-      </c>
-      <c r="X15">
-        <v>-1.6349955378297112E-2</v>
-      </c>
-      <c r="Y15">
-        <v>-0.10320937719173909</v>
-      </c>
-      <c r="Z15">
-        <v>-3.5185704424234922E-5</v>
-      </c>
-      <c r="AA15">
-        <v>-4.1170669357442575</v>
-      </c>
-      <c r="AB15">
-        <v>-8.3564633472437685E-2</v>
-      </c>
-      <c r="AC15">
-        <v>0.30995721183845404</v>
+        <v>1680.370889299316</v>
       </c>
     </row>
   </sheetData>
